--- a/Disk_Emas1.xlsx
+++ b/Disk_Emas1.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khans\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI\forecast\ewfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D8FEB-9F9F-45A9-959C-E9D077AB2743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E93A00A-BC06-4000-8C90-7075F8403A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,12 +77,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,15 +364,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B427"/>
+  <dimension ref="A1:B907"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B154" sqref="B8:B154"/>
+    <sheetView tabSelected="1" topLeftCell="A678" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D734" sqref="D734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3511,106 +3521,3795 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="2"/>
+      <c r="A394" s="2">
+        <v>44223</v>
+      </c>
+      <c r="B394" s="5">
+        <f ca="1">RANDBETWEEN(B2,90)</f>
+        <v>65</v>
+      </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="2"/>
+      <c r="A395" s="2">
+        <v>44224</v>
+      </c>
+      <c r="B395" s="5">
+        <f t="shared" ref="B395:B458" ca="1" si="0">RANDBETWEEN(B3,90)</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="2"/>
+      <c r="A396" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B396" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="2"/>
+      <c r="A397" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B397" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="2"/>
+      <c r="A398" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B398" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="2"/>
+      <c r="A399" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B399" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="2"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" s="2"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" s="2"/>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" s="2"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" s="2"/>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" s="2"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" s="2"/>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" s="2"/>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" s="2"/>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" s="2"/>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" s="2"/>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" s="2"/>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" s="2"/>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" s="2"/>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" s="2"/>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" s="2"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" s="2"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" s="2"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" s="2"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" s="2"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" s="2"/>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" s="2"/>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" s="2"/>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" s="2"/>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" s="2"/>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" s="2"/>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" s="2"/>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" s="2"/>
+      <c r="A400" s="2">
+        <v>44229</v>
+      </c>
+      <c r="B400" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="2">
+        <v>44230</v>
+      </c>
+      <c r="B401" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B402" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B403" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B404" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B405" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B406" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B407" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B408" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B409" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B410" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B411" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B412" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B413" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B414" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B415" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B416" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B417" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B418" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="2">
+        <v>44248</v>
+      </c>
+      <c r="B419" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B420" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B421" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B422" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B423" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B424" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B425" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B426" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B427" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="2">
+        <v>44257</v>
+      </c>
+      <c r="B428" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="2">
+        <v>44258</v>
+      </c>
+      <c r="B429" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="2">
+        <v>44259</v>
+      </c>
+      <c r="B430" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B431" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="2">
+        <v>44261</v>
+      </c>
+      <c r="B432" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="2">
+        <v>44262</v>
+      </c>
+      <c r="B433" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B434" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="2">
+        <v>44264</v>
+      </c>
+      <c r="B435" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="2">
+        <v>44265</v>
+      </c>
+      <c r="B436" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="2">
+        <v>44266</v>
+      </c>
+      <c r="B437" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B438" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B439" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B440" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B441" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="2">
+        <v>44271</v>
+      </c>
+      <c r="B442" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="2">
+        <v>44272</v>
+      </c>
+      <c r="B443" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B444" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B445" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="2">
+        <v>44275</v>
+      </c>
+      <c r="B446" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="2">
+        <v>44276</v>
+      </c>
+      <c r="B447" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B448" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B449" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B450" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B451" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B452" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B453" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B454" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B455" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="2">
+        <v>44285</v>
+      </c>
+      <c r="B456" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B457" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B458" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B459" s="5">
+        <f t="shared" ref="B459:B522" ca="1" si="1">RANDBETWEEN(B67,90)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="2">
+        <v>44289</v>
+      </c>
+      <c r="B460" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="2">
+        <v>44290</v>
+      </c>
+      <c r="B461" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="2">
+        <v>44291</v>
+      </c>
+      <c r="B462" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="2">
+        <v>44292</v>
+      </c>
+      <c r="B463" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="2">
+        <v>44293</v>
+      </c>
+      <c r="B464" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="2">
+        <v>44294</v>
+      </c>
+      <c r="B465" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="2">
+        <v>44295</v>
+      </c>
+      <c r="B466" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="2">
+        <v>44296</v>
+      </c>
+      <c r="B467" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="2">
+        <v>44297</v>
+      </c>
+      <c r="B468" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B469" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B470" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="2">
+        <v>44300</v>
+      </c>
+      <c r="B471" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B472" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B473" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="2">
+        <v>44303</v>
+      </c>
+      <c r="B474" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="2">
+        <v>44304</v>
+      </c>
+      <c r="B475" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B476" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="2">
+        <v>44306</v>
+      </c>
+      <c r="B477" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="2">
+        <v>44307</v>
+      </c>
+      <c r="B478" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="2">
+        <v>44308</v>
+      </c>
+      <c r="B479" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="2">
+        <v>44309</v>
+      </c>
+      <c r="B480" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="2">
+        <v>44310</v>
+      </c>
+      <c r="B481" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="2">
+        <v>44311</v>
+      </c>
+      <c r="B482" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B483" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B484" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="2">
+        <v>44314</v>
+      </c>
+      <c r="B485" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="2">
+        <v>44315</v>
+      </c>
+      <c r="B486" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B487" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B488" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="2">
+        <v>44318</v>
+      </c>
+      <c r="B489" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B490" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B491" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B492" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="2">
+        <v>44322</v>
+      </c>
+      <c r="B493" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="2">
+        <v>44323</v>
+      </c>
+      <c r="B494" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="2">
+        <v>44324</v>
+      </c>
+      <c r="B495" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="2">
+        <v>44325</v>
+      </c>
+      <c r="B496" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B497" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="2">
+        <v>44327</v>
+      </c>
+      <c r="B498" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B499" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B500" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B501" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B502" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="2">
+        <v>44332</v>
+      </c>
+      <c r="B503" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B504" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="2">
+        <v>44334</v>
+      </c>
+      <c r="B505" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="2">
+        <v>44335</v>
+      </c>
+      <c r="B506" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="2">
+        <v>44336</v>
+      </c>
+      <c r="B507" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="2">
+        <v>44337</v>
+      </c>
+      <c r="B508" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="2">
+        <v>44338</v>
+      </c>
+      <c r="B509" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="2">
+        <v>44339</v>
+      </c>
+      <c r="B510" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="2">
+        <v>44340</v>
+      </c>
+      <c r="B511" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B512" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="2">
+        <v>44342</v>
+      </c>
+      <c r="B513" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="2">
+        <v>44343</v>
+      </c>
+      <c r="B514" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="2">
+        <v>44344</v>
+      </c>
+      <c r="B515" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="2">
+        <v>44345</v>
+      </c>
+      <c r="B516" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="2">
+        <v>44346</v>
+      </c>
+      <c r="B517" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B518" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B519" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="2">
+        <v>44349</v>
+      </c>
+      <c r="B520" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="2">
+        <v>44350</v>
+      </c>
+      <c r="B521" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="2">
+        <v>44351</v>
+      </c>
+      <c r="B522" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="2">
+        <v>44352</v>
+      </c>
+      <c r="B523" s="5">
+        <f t="shared" ref="B523:B586" ca="1" si="2">RANDBETWEEN(B131,90)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="2">
+        <v>44353</v>
+      </c>
+      <c r="B524" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B525" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="2">
+        <v>44355</v>
+      </c>
+      <c r="B526" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B527" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B528" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B529" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B530" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B531" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B532" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B533" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B534" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B535" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B536" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B537" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B538" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B539" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" s="2">
+        <v>44369</v>
+      </c>
+      <c r="B540" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B541" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B542" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B543" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" s="2">
+        <v>44373</v>
+      </c>
+      <c r="B544" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B545" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B546" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B547" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B548" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B549" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B550" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" s="2">
+        <v>44380</v>
+      </c>
+      <c r="B551" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B552" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B553" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B554" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B555" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B556" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B557" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" s="2">
+        <v>44387</v>
+      </c>
+      <c r="B558" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" s="2">
+        <v>44388</v>
+      </c>
+      <c r="B559" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B560" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" s="2">
+        <v>44390</v>
+      </c>
+      <c r="B561" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B562" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B563" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B564" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" s="2">
+        <v>44394</v>
+      </c>
+      <c r="B565" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" s="2">
+        <v>44395</v>
+      </c>
+      <c r="B566" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B567" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B568" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B569" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" s="2">
+        <v>44399</v>
+      </c>
+      <c r="B570" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B571" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" s="2">
+        <v>44401</v>
+      </c>
+      <c r="B572" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" s="2">
+        <v>44402</v>
+      </c>
+      <c r="B573" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B574" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B575" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B576" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" s="2">
+        <v>44406</v>
+      </c>
+      <c r="B577" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B578" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B579" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B580" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" s="2">
+        <v>44410</v>
+      </c>
+      <c r="B581" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" s="2">
+        <v>44411</v>
+      </c>
+      <c r="B582" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" s="2">
+        <v>44412</v>
+      </c>
+      <c r="B583" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B584" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" s="2">
+        <v>44414</v>
+      </c>
+      <c r="B585" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" s="2">
+        <v>44415</v>
+      </c>
+      <c r="B586" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B587" s="5">
+        <f t="shared" ref="B587:B650" ca="1" si="3">RANDBETWEEN(B195,90)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B588" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B589" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B590" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B591" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B592" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B593" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B594" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B595" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B596" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B597" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B598" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B599" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B600" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B601" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B602" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B603" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B604" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B605" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B606" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" s="2">
+        <v>44436</v>
+      </c>
+      <c r="B607" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B608" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" s="2">
+        <v>44438</v>
+      </c>
+      <c r="B609" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B610" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B611" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" s="2">
+        <v>44441</v>
+      </c>
+      <c r="B612" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B613" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B614" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" s="2">
+        <v>44444</v>
+      </c>
+      <c r="B615" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B616" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" s="2">
+        <v>44446</v>
+      </c>
+      <c r="B617" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" s="2">
+        <v>44447</v>
+      </c>
+      <c r="B618" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" s="2">
+        <v>44448</v>
+      </c>
+      <c r="B619" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B620" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" s="2">
+        <v>44450</v>
+      </c>
+      <c r="B621" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" s="2">
+        <v>44451</v>
+      </c>
+      <c r="B622" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" s="2">
+        <v>44452</v>
+      </c>
+      <c r="B623" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" s="2">
+        <v>44453</v>
+      </c>
+      <c r="B624" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B625" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" s="2">
+        <v>44455</v>
+      </c>
+      <c r="B626" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" s="2">
+        <v>44456</v>
+      </c>
+      <c r="B627" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" s="2">
+        <v>44457</v>
+      </c>
+      <c r="B628" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" s="2">
+        <v>44458</v>
+      </c>
+      <c r="B629" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" s="2">
+        <v>44459</v>
+      </c>
+      <c r="B630" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" s="2">
+        <v>44460</v>
+      </c>
+      <c r="B631" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" s="2">
+        <v>44461</v>
+      </c>
+      <c r="B632" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" s="2">
+        <v>44462</v>
+      </c>
+      <c r="B633" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" s="2">
+        <v>44463</v>
+      </c>
+      <c r="B634" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" s="2">
+        <v>44464</v>
+      </c>
+      <c r="B635" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" s="2">
+        <v>44465</v>
+      </c>
+      <c r="B636" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B637" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" s="2">
+        <v>44467</v>
+      </c>
+      <c r="B638" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639" s="2">
+        <v>44468</v>
+      </c>
+      <c r="B639" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B640" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B641" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642" s="2">
+        <v>44471</v>
+      </c>
+      <c r="B642" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" s="2">
+        <v>44472</v>
+      </c>
+      <c r="B643" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" s="2">
+        <v>44473</v>
+      </c>
+      <c r="B644" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" s="2">
+        <v>44474</v>
+      </c>
+      <c r="B645" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" s="2">
+        <v>44475</v>
+      </c>
+      <c r="B646" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" s="2">
+        <v>44476</v>
+      </c>
+      <c r="B647" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" s="2">
+        <v>44477</v>
+      </c>
+      <c r="B648" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" s="2">
+        <v>44478</v>
+      </c>
+      <c r="B649" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" s="2">
+        <v>44479</v>
+      </c>
+      <c r="B650" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" s="2">
+        <v>44480</v>
+      </c>
+      <c r="B651" s="5">
+        <f t="shared" ref="B651:B714" ca="1" si="4">RANDBETWEEN(B259,90)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" s="2">
+        <v>44481</v>
+      </c>
+      <c r="B652" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" s="2">
+        <v>44482</v>
+      </c>
+      <c r="B653" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B654" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B655" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B656" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B657" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B658" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B659" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B660" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B661" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B662" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B663" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B664" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B665" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B666" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B667" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B668" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B669" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B670" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B671" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B672" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B673" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B674" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" s="2">
+        <v>44504</v>
+      </c>
+      <c r="B675" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B676" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B677" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B678" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B679" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" s="2">
+        <v>44509</v>
+      </c>
+      <c r="B680" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B681" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B682" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B683" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" s="2">
+        <v>44513</v>
+      </c>
+      <c r="B684" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" s="2">
+        <v>44514</v>
+      </c>
+      <c r="B685" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B686" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" s="2">
+        <v>44516</v>
+      </c>
+      <c r="B687" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B688" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" s="2">
+        <v>44518</v>
+      </c>
+      <c r="B689" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B690" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" s="2">
+        <v>44520</v>
+      </c>
+      <c r="B691" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" s="2">
+        <v>44521</v>
+      </c>
+      <c r="B692" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B693" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" s="2">
+        <v>44523</v>
+      </c>
+      <c r="B694" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" s="2">
+        <v>44524</v>
+      </c>
+      <c r="B695" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B696" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B697" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698" s="2">
+        <v>44527</v>
+      </c>
+      <c r="B698" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699" s="2">
+        <v>44528</v>
+      </c>
+      <c r="B699" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700" s="2">
+        <v>44529</v>
+      </c>
+      <c r="B700" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B701" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B702" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" s="2">
+        <v>44532</v>
+      </c>
+      <c r="B703" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704" s="2">
+        <v>44533</v>
+      </c>
+      <c r="B704" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" s="2">
+        <v>44534</v>
+      </c>
+      <c r="B705" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" s="2">
+        <v>44535</v>
+      </c>
+      <c r="B706" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" s="2">
+        <v>44536</v>
+      </c>
+      <c r="B707" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" s="2">
+        <v>44537</v>
+      </c>
+      <c r="B708" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709" s="2">
+        <v>44538</v>
+      </c>
+      <c r="B709" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" s="2">
+        <v>44539</v>
+      </c>
+      <c r="B710" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" s="2">
+        <v>44540</v>
+      </c>
+      <c r="B711" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" s="2">
+        <v>44541</v>
+      </c>
+      <c r="B712" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" s="2">
+        <v>44542</v>
+      </c>
+      <c r="B713" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B714" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" s="2">
+        <v>44544</v>
+      </c>
+      <c r="B715" s="5">
+        <f t="shared" ref="B715:B740" ca="1" si="5">RANDBETWEEN(B323,90)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716" s="2">
+        <v>44545</v>
+      </c>
+      <c r="B716" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" s="2">
+        <v>44546</v>
+      </c>
+      <c r="B717" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" s="2">
+        <v>44547</v>
+      </c>
+      <c r="B718" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719" s="2">
+        <v>44548</v>
+      </c>
+      <c r="B719" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720" s="2">
+        <v>44549</v>
+      </c>
+      <c r="B720" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B721" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722" s="2">
+        <v>44551</v>
+      </c>
+      <c r="B722" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723" s="2">
+        <v>44552</v>
+      </c>
+      <c r="B723" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724" s="2">
+        <v>44553</v>
+      </c>
+      <c r="B724" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725" s="2">
+        <v>44554</v>
+      </c>
+      <c r="B725" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726" s="2">
+        <v>44555</v>
+      </c>
+      <c r="B726" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727" s="2">
+        <v>44556</v>
+      </c>
+      <c r="B727" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728" s="2">
+        <v>44557</v>
+      </c>
+      <c r="B728" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729" s="2">
+        <v>44558</v>
+      </c>
+      <c r="B729" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730" s="2">
+        <v>44559</v>
+      </c>
+      <c r="B730" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731" s="2">
+        <v>44560</v>
+      </c>
+      <c r="B731" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B732" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B733" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734" s="2">
+        <v>44563</v>
+      </c>
+      <c r="B734" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735" s="2">
+        <v>44564</v>
+      </c>
+      <c r="B735" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B736" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B737" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B738" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B739" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740" s="2">
+        <v>44569</v>
+      </c>
+      <c r="B740" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741" s="2"/>
+      <c r="B741" s="5"/>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742" s="2"/>
+      <c r="B742" s="5"/>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743" s="2"/>
+      <c r="B743" s="5"/>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744" s="2"/>
+      <c r="B744" s="5"/>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745" s="2"/>
+      <c r="B745" s="5"/>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746" s="2"/>
+      <c r="B746" s="5"/>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747" s="2"/>
+      <c r="B747" s="5"/>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748" s="2"/>
+      <c r="B748" s="5"/>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749" s="2"/>
+      <c r="B749" s="5"/>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750" s="2"/>
+      <c r="B750" s="5"/>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751" s="2"/>
+      <c r="B751" s="5"/>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752" s="2"/>
+      <c r="B752" s="5"/>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753" s="2"/>
+      <c r="B753" s="5"/>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754" s="2"/>
+      <c r="B754" s="5"/>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755" s="2"/>
+      <c r="B755" s="5"/>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756" s="2"/>
+      <c r="B756" s="5"/>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" s="2"/>
+      <c r="B757" s="5"/>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" s="2"/>
+      <c r="B758" s="5"/>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" s="2"/>
+      <c r="B759" s="5"/>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760" s="2"/>
+      <c r="B760" s="5"/>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761" s="2"/>
+      <c r="B761" s="5"/>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" s="2"/>
+      <c r="B762" s="5"/>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" s="2"/>
+      <c r="B763" s="5"/>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" s="2"/>
+      <c r="B764" s="5"/>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" s="2"/>
+      <c r="B765" s="5"/>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" s="2"/>
+      <c r="B766" s="5"/>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" s="2"/>
+      <c r="B767" s="5"/>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" s="2"/>
+      <c r="B768" s="5"/>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" s="2"/>
+      <c r="B769" s="5"/>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" s="2"/>
+      <c r="B770" s="5"/>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" s="2"/>
+      <c r="B771" s="5"/>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" s="2"/>
+      <c r="B772" s="5"/>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" s="2"/>
+      <c r="B773" s="5"/>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" s="2"/>
+      <c r="B774" s="5"/>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" s="2"/>
+      <c r="B775" s="5"/>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" s="2"/>
+      <c r="B776" s="5"/>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" s="2"/>
+      <c r="B777" s="5"/>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" s="2"/>
+      <c r="B778" s="5"/>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" s="2"/>
+      <c r="B779" s="5"/>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" s="2"/>
+      <c r="B780" s="5"/>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" s="2"/>
+      <c r="B781" s="5"/>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" s="2"/>
+      <c r="B782" s="5"/>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" s="2"/>
+      <c r="B783" s="5"/>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" s="2"/>
+      <c r="B784" s="5"/>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785" s="2"/>
+      <c r="B785" s="5"/>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786" s="2"/>
+      <c r="B786" s="5"/>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787" s="2"/>
+      <c r="B787" s="5"/>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788" s="2"/>
+      <c r="B788" s="5"/>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" s="2"/>
+      <c r="B789" s="5"/>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" s="2"/>
+      <c r="B790" s="5"/>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" s="2"/>
+      <c r="B791" s="5"/>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" s="2"/>
+      <c r="B792" s="5"/>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" s="2"/>
+      <c r="B793" s="5"/>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794" s="2"/>
+      <c r="B794" s="5"/>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795" s="2"/>
+      <c r="B795" s="5"/>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796" s="2"/>
+      <c r="B796" s="5"/>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797" s="2"/>
+      <c r="B797" s="5"/>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798" s="2"/>
+      <c r="B798" s="5"/>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799" s="2"/>
+      <c r="B799" s="5"/>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800" s="2"/>
+      <c r="B800" s="5"/>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801" s="2"/>
+      <c r="B801" s="5"/>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" s="2"/>
+      <c r="B802" s="5"/>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803" s="2"/>
+      <c r="B803" s="5"/>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804" s="2"/>
+      <c r="B804" s="5"/>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805" s="2"/>
+      <c r="B805" s="5"/>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806" s="2"/>
+      <c r="B806" s="5"/>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807" s="2"/>
+      <c r="B807" s="5"/>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808" s="2"/>
+      <c r="B808" s="5"/>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809" s="2"/>
+      <c r="B809" s="5"/>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810" s="2"/>
+      <c r="B810" s="5"/>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811" s="2"/>
+      <c r="B811" s="5"/>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812" s="2"/>
+      <c r="B812" s="5"/>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813" s="2"/>
+      <c r="B813" s="5"/>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814" s="2"/>
+      <c r="B814" s="5"/>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815" s="2"/>
+      <c r="B815" s="5"/>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816" s="2"/>
+      <c r="B816" s="5"/>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817" s="2"/>
+      <c r="B817" s="5"/>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" s="2"/>
+      <c r="B818" s="5"/>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" s="2"/>
+      <c r="B819" s="5"/>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" s="2"/>
+      <c r="B820" s="5"/>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" s="2"/>
+      <c r="B821" s="5"/>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" s="2"/>
+      <c r="B822" s="5"/>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" s="2"/>
+      <c r="B823" s="5"/>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" s="2"/>
+      <c r="B824" s="5"/>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" s="2"/>
+      <c r="B825" s="5"/>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" s="2"/>
+      <c r="B826" s="5"/>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" s="2"/>
+      <c r="B827" s="5"/>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" s="2"/>
+      <c r="B828" s="5"/>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" s="2"/>
+      <c r="B829" s="5"/>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" s="2"/>
+      <c r="B830" s="5"/>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" s="2"/>
+      <c r="B831" s="5"/>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" s="2"/>
+      <c r="B832" s="5"/>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" s="2"/>
+      <c r="B833" s="5"/>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" s="2"/>
+      <c r="B834" s="5"/>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" s="2"/>
+      <c r="B835" s="5"/>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" s="2"/>
+      <c r="B836" s="5"/>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" s="2"/>
+      <c r="B837" s="5"/>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" s="2"/>
+      <c r="B838" s="5"/>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" s="2"/>
+      <c r="B839" s="5"/>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" s="2"/>
+      <c r="B840" s="5"/>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" s="2"/>
+      <c r="B841" s="5"/>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" s="2"/>
+      <c r="B842" s="5"/>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" s="2"/>
+      <c r="B843" s="5"/>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" s="2"/>
+      <c r="B844" s="5"/>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" s="2"/>
+      <c r="B845" s="5"/>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" s="2"/>
+      <c r="B846" s="5"/>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" s="2"/>
+      <c r="B847" s="5"/>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" s="2"/>
+      <c r="B848" s="5"/>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" s="2"/>
+      <c r="B849" s="5"/>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" s="2"/>
+      <c r="B850" s="5"/>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" s="2"/>
+      <c r="B851" s="5"/>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852" s="2"/>
+      <c r="B852" s="5"/>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853" s="2"/>
+      <c r="B853" s="5"/>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854" s="2"/>
+      <c r="B854" s="5"/>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855" s="2"/>
+      <c r="B855" s="5"/>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" s="2"/>
+      <c r="B856" s="5"/>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857" s="2"/>
+      <c r="B857" s="5"/>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858" s="2"/>
+      <c r="B858" s="5"/>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859" s="2"/>
+      <c r="B859" s="5"/>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860" s="2"/>
+      <c r="B860" s="5"/>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861" s="2"/>
+      <c r="B861" s="5"/>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862" s="2"/>
+      <c r="B862" s="5"/>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863" s="2"/>
+      <c r="B863" s="5"/>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864" s="2"/>
+      <c r="B864" s="5"/>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865" s="2"/>
+      <c r="B865" s="5"/>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" s="2"/>
+      <c r="B866" s="5"/>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867" s="2"/>
+      <c r="B867" s="5"/>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868" s="2"/>
+      <c r="B868" s="5"/>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869" s="2"/>
+      <c r="B869" s="5"/>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870" s="2"/>
+      <c r="B870" s="5"/>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871" s="2"/>
+      <c r="B871" s="5"/>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872" s="2"/>
+      <c r="B872" s="5"/>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873" s="2"/>
+      <c r="B873" s="5"/>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874" s="2"/>
+      <c r="B874" s="5"/>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875" s="2"/>
+      <c r="B875" s="5"/>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876" s="2"/>
+      <c r="B876" s="5"/>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877" s="2"/>
+      <c r="B877" s="5"/>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878" s="2"/>
+      <c r="B878" s="5"/>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879" s="2"/>
+      <c r="B879" s="5"/>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880" s="2"/>
+      <c r="B880" s="5"/>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881" s="2"/>
+      <c r="B881" s="5"/>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882" s="2"/>
+      <c r="B882" s="5"/>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883" s="2"/>
+      <c r="B883" s="5"/>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884" s="2"/>
+      <c r="B884" s="5"/>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885" s="2"/>
+      <c r="B885" s="5"/>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886" s="2"/>
+      <c r="B886" s="5"/>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887" s="2"/>
+      <c r="B887" s="5"/>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888" s="2"/>
+      <c r="B888" s="5"/>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889" s="2"/>
+      <c r="B889" s="5"/>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890" s="2"/>
+      <c r="B890" s="5"/>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891" s="2"/>
+      <c r="B891" s="5"/>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892" s="2"/>
+      <c r="B892" s="5"/>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893" s="2"/>
+      <c r="B893" s="5"/>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894" s="2"/>
+      <c r="B894" s="5"/>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895" s="2"/>
+      <c r="B895" s="5"/>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896" s="2"/>
+      <c r="B896" s="5"/>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897" s="2"/>
+      <c r="B897" s="5"/>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898" s="2"/>
+      <c r="B898" s="5"/>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899" s="2"/>
+      <c r="B899" s="5"/>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900" s="2"/>
+      <c r="B900" s="5"/>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901" s="2"/>
+      <c r="B901" s="5"/>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902" s="2"/>
+      <c r="B902" s="5"/>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903" s="2"/>
+      <c r="B903" s="5"/>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904" s="2"/>
+      <c r="B904" s="5"/>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905" s="2"/>
+      <c r="B905" s="5"/>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906" s="2"/>
+      <c r="B906" s="5"/>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907" s="2"/>
+      <c r="B907" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
